--- a/Documenten/user stories.xlsx
+++ b/Documenten/user stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d2615c9a12c584b/Documenten/GitHub/I-Game/Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4D7A0C205A6B9A452FA8747F5D62445BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D237EF1-1B7E-460C-8CB8-25E15CD5C678}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D7A0C205A6B9A452FA8747F5D62445BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB41B7D8-16A8-47B5-A6C4-642977FDD682}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="104">
   <si>
     <t>Items (19) Summary:</t>
   </si>
@@ -114,10 +114,28 @@
     <t xml:space="preserve">Iteration Path: 2024_Labs_Groep9\Iteration 1 | State: New </t>
   </si>
   <si>
+    <t>Acceptance Criteria:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   In Github ingeleverd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   Laten zien aan groepsleden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   KISS (Keep It Stupid Simple) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   Zwart/wit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   Geen kleuren </t>
+  </si>
+  <si>
     <t>2 | ID: 28540 | Type: User Story | Created: 8-3-2024 21:36:36 by Ashraf Basnoe</t>
   </si>
   <si>
-    <t>Acceptance Criteria:</t>
+    <t>Description:</t>
   </si>
   <si>
     <t xml:space="preserve">Corné wilt hebben dat er per vraag er wordt bijgehouden hoe lang een user bezig is met een vraag </t>
@@ -135,9 +153,18 @@
     <t>6 | ID: 28536 | Type: User Story | Created: 8-3-2024 21:19:41 by Tim Bakker (student)</t>
   </si>
   <si>
+    <t>•   Geen kleuren</t>
+  </si>
+  <si>
     <t>7 | ID: 28535 | Type: User Story | Created: 8-3-2024 21:19:01 by Ashraf Basnoe</t>
   </si>
   <si>
+    <t xml:space="preserve">•   Nieuwe verbeterde Wireframes erin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•   Nieuwe verbeterde Canvas erin </t>
+  </si>
+  <si>
     <t>8 | ID: 28534 | Type: Epic | Created: 8-3-2024 21:17:22 by Ashraf Basnoe</t>
   </si>
   <si>
@@ -147,9 +174,6 @@
     <t>10 | ID: 28530 | Type: Epic | Created: 8-3-2024 21:07:16 by Ashraf Basnoe</t>
   </si>
   <si>
-    <t>Description:</t>
-  </si>
-  <si>
     <t>Na het gesprek met Corné heeft hij ons feedback gegeven op de gemaakte wireframes. Hij wilde een paar aanpassingen hebben.</t>
   </si>
   <si>
@@ -298,9 +322,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wireframe startpagina </t>
-  </si>
-  <si>
-    <t>Wireframe startpagina</t>
   </si>
   <si>
     <t>Start pagina.png</t>
@@ -634,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="202.7109375" customWidth="1"/>
+    <col min="1" max="1" width="202.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="162.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -947,149 +968,184 @@
         <v>28</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -1099,489 +1155,889 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>67</v>
-      </c>
-      <c r="B118" t="s">
-        <v>68</v>
-      </c>
-      <c r="C118" s="1">
-        <v>45355.451874999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>64</v>
-      </c>
-      <c r="B139" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" s="1">
-        <v>45355.449293981481</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>64</v>
-      </c>
-      <c r="B153" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B154" t="s">
-        <v>79</v>
-      </c>
-      <c r="C154" s="1">
-        <v>45355.448993055557</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>64</v>
-      </c>
-      <c r="B167" t="s">
-        <v>65</v>
-      </c>
-      <c r="C167" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>82</v>
-      </c>
-      <c r="B168" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" s="1">
-        <v>45355.448310185187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>64</v>
-      </c>
-      <c r="B181" t="s">
-        <v>65</v>
-      </c>
-      <c r="C181" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182" s="1">
-        <v>45355.448472222219</v>
+        <v>73</v>
+      </c>
+      <c r="C182" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="B183" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45355.451874999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>72</v>
+      </c>
+      <c r="B218" t="s">
+        <v>73</v>
+      </c>
+      <c r="C218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>82</v>
+      </c>
+      <c r="B219" t="s">
+        <v>83</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45355.449293981481</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>72</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>86</v>
+      </c>
+      <c r="B240" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" s="1">
+        <v>45355.448993055557</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B261" t="s">
+        <v>91</v>
+      </c>
+      <c r="C261" s="1">
+        <v>45355.448310185187</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>64</v>
-      </c>
-      <c r="B198" t="s">
-        <v>65</v>
-      </c>
-      <c r="C198" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>92</v>
-      </c>
-      <c r="B199" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>72</v>
+      </c>
+      <c r="B281" t="s">
+        <v>73</v>
+      </c>
+      <c r="C281" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>95</v>
+      </c>
+      <c r="B282" t="s">
+        <v>96</v>
+      </c>
+      <c r="C282" s="1">
+        <v>45355.448472222219</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>93</v>
       </c>
-      <c r="C199" s="1">
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>72</v>
+      </c>
+      <c r="B302" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>99</v>
+      </c>
+      <c r="B303" t="s">
+        <v>100</v>
+      </c>
+      <c r="C303" s="1">
         <v>45355.448182870372</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>96</v>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/user stories.xlsx
+++ b/Documenten/user stories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
